--- a/academias/Lectura, Expresión Oral y Escrita - Estadisticos 20202.xlsx
+++ b/academias/Lectura, Expresión Oral y Escrita - Estadisticos 20202.xlsx
@@ -516,25 +516,25 @@
         <v>40</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>95</v>
+        <v>97.5</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I2">
         <v>7.1</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -866,25 +866,25 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>61.54</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>38.46</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>38.46</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -953,25 +953,25 @@
         <v>40</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>77.5</v>
+        <v>92.5</v>
       </c>
       <c r="H2">
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="I2">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1303,25 +1303,25 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>56.41</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>43.59</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="J12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>43.59</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1390,25 +1390,25 @@
         <v>40</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>95</v>
+        <v>97.5</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I2">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1740,25 +1740,25 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>61.54</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>38.46</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>38.46</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Lectura, Expresión Oral y Escrita - Estadisticos 20202.xlsx
+++ b/academias/Lectura, Expresión Oral y Escrita - Estadisticos 20202.xlsx
@@ -1425,19 +1425,19 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>91.67</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="I3">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1495,19 +1495,19 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="I5">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J5">
         <v>0</v>
